--- a/Resultados Búsqueda Inicial/Preguntas desglosadas.xlsx
+++ b/Resultados Búsqueda Inicial/Preguntas desglosadas.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E64882F-F0F9-4B77-A1C7-E28F02820B3D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/elizabeth_sanchez_urosario_edu_co/Documents/Documentos/GitHub/Fortiva_RevSistematica/Resultados Búsqueda Inicial/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CFBFDB2-AAF4-4378-A7F6-8A51E2F536B0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Pregunta principal</t>
   </si>
@@ -247,13 +252,25 @@
   </si>
   <si>
     <t>-Do they use artificial intelligence algorithms in  this study?.</t>
+  </si>
+  <si>
+    <t>TOOL</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>Findings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +298,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,7 +407,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -400,6 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,11 +774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="158.85546875" bestFit="1" customWidth="1"/>
@@ -749,14 +787,14 @@
     <col min="5" max="5" width="112.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="92.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="92.42578125" style="14" customWidth="1"/>
     <col min="9" max="9" width="53.85546875" customWidth="1"/>
     <col min="10" max="10" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,11 +832,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -826,13 +864,13 @@
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -860,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -888,13 +926,13 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -916,13 +954,13 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -946,9 +984,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -972,9 +1010,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="4"/>
@@ -996,9 +1034,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="4"/>
@@ -1016,9 +1054,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="4"/>
@@ -1036,9 +1074,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="4"/>
@@ -1052,9 +1090,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="4"/>
@@ -1068,15 +1106,34 @@
       <c r="K12" s="4"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="D13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
